--- a/Club-Dev/Gestion des tâches.xlsx
+++ b/Club-Dev/Gestion des tâches.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141265A-2181-45CC-B01E-250B3320E365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches Club-Dev" sheetId="1" r:id="rId1"/>
+    <sheet name="Linux- Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Présentation PowerPoint" sheetId="3" r:id="rId3"/>
+    <sheet name="Journée Linux" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>Projet</t>
   </si>
@@ -58,20 +60,152 @@
     <t>Inscription</t>
   </si>
   <si>
-    <t>Présentation des projets</t>
-  </si>
-  <si>
     <t>Journée Linux</t>
   </si>
   <si>
     <t>WordPress</t>
+  </si>
+  <si>
+    <t>Présentation de club</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>Références</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>Présentation de linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réfétrence </t>
+  </si>
+  <si>
+    <t>Importance de linux pour le développement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référecnes </t>
+  </si>
+  <si>
+    <t>Installation de linux</t>
+  </si>
+  <si>
+    <t>Référence 1 min</t>
+  </si>
+  <si>
+    <t>1 DH</t>
+  </si>
+  <si>
+    <t>Pratique</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>Réception et Inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inscription au club et Pratique</t>
+  </si>
+  <si>
+    <t>Introduction au Séance Pratique</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>Financement</t>
+  </si>
+  <si>
+    <t>Vente des espace de publicité</t>
+  </si>
+  <si>
+    <t>Démonstration Vidéo</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>image 2</t>
+  </si>
+  <si>
+    <t>Présentation du solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction du solution </t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>mohamed selfati /Mohamed reda el Amrani</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Format A3</t>
+  </si>
+  <si>
+    <t>Impression de la fiche</t>
+  </si>
+  <si>
+    <t>Logo et Fiche</t>
+  </si>
+  <si>
+    <t>Présentateur</t>
+  </si>
+  <si>
+    <t>Abdi</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Compléte</t>
+  </si>
+  <si>
+    <t>Objectif et Problématique</t>
+  </si>
+  <si>
+    <t>sous forme d'annimation PowerPoint</t>
+  </si>
+  <si>
+    <t>Notre Solution</t>
+  </si>
+  <si>
+    <t>Finition du graphe</t>
+  </si>
+  <si>
+    <t>2 jours , Vendredi et Sammedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d'une vidéo de présentation </t>
+  </si>
+  <si>
+    <t>Publication du vidéo sur Notre Chîne youtube</t>
+  </si>
+  <si>
+    <t>Formateur Fouad</t>
+  </si>
+  <si>
+    <t>Administration page facebook</t>
+  </si>
+  <si>
+    <t>akkach abderrahim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,19 +213,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -100,8 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,91 +552,581 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
